--- a/python/EGE/Статград/1-2025/Доп/22.xlsx
+++ b/python/EGE/Статград/1-2025/Доп/22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕГЭ\2025\ТР1\Файлы 2025 ТР1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snser\OneDrive\Документы\GitHub\Python\python\EGE\Статград\1-2025\Доп\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF9799-B00D-43FF-9401-108843575F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A97988C-D5A6-4112-99BD-45A2367857AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22" sheetId="1" r:id="rId1"/>
@@ -37,24 +37,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID процесса B</t>
-  </si>
-  <si>
-    <t>105;106</t>
-  </si>
-  <si>
-    <t>101;102</t>
-  </si>
-  <si>
-    <t>110;111</t>
   </si>
   <si>
     <t>Время выполнения процесса (мс)</t>
   </si>
   <si>
     <t>ID поставщиков данных</t>
+  </si>
+  <si>
+    <t>ВПР</t>
+  </si>
+  <si>
+    <t>Конец</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Сдвиг</t>
   </si>
 </sst>
 </file>
@@ -71,15 +74,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,11 +114,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -99,11 +141,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -388,185 +468,3114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="6" width="9.140625" style="8"/>
+    <col min="10" max="49" width="4.28515625" customWidth="1"/>
+    <col min="50" max="51" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12">
+        <v>3</v>
+      </c>
+      <c r="M2" s="12">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12">
+        <v>5</v>
+      </c>
+      <c r="O2" s="12">
+        <v>6</v>
+      </c>
+      <c r="P2" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>8</v>
+      </c>
+      <c r="R2" s="12">
+        <v>9</v>
+      </c>
+      <c r="S2" s="12">
+        <v>10</v>
+      </c>
+      <c r="T2" s="12">
+        <v>11</v>
+      </c>
+      <c r="U2" s="12">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12">
+        <v>13</v>
+      </c>
+      <c r="W2" s="12">
+        <v>14</v>
+      </c>
+      <c r="X2" s="12">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>26</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>27</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>28</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>29</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>31</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>32</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>33</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>34</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>35</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>37</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>38</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>39</v>
+      </c>
+      <c r="AW2" s="12">
+        <v>40</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>41</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="10">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
+      <c r="E3" s="8">
+        <f>VLOOKUP(C3,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <f>VLOOKUP(D3,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>B3+MAX(E3:F3)+I3</f>
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <f>G3-B3+1</f>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="11" t="str">
+        <f>IF(AND($H3&lt;=J$2,J$2&lt;=$G3),1,"")</f>
+        <v/>
+      </c>
+      <c r="K3" s="11" t="str">
+        <f t="shared" ref="K3:AW9" si="0">IF(AND($H3&lt;=K$2,K$2&lt;=$G3),1,"")</f>
+        <v/>
+      </c>
+      <c r="L3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW3" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX3" s="11" t="str">
+        <f t="shared" ref="AX3:AY8" si="1">IF(AND($H3&lt;=AX$2,AX$2&lt;=$G3),1,"")</f>
+        <v/>
+      </c>
+      <c r="AY3" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>102</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="10">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
+      <c r="E4" s="8">
+        <f>VLOOKUP(C4,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <f>VLOOKUP(D4,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G16" si="2">B4+MAX(E4:F4)+I4</f>
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H16" si="3">G4-B4+1</f>
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="11" t="str">
+        <f t="shared" ref="J4:Y16" si="4">IF(AND($H4&lt;=J$2,J$2&lt;=$G4),1,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AY4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>103</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="6">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5">
+        <v>102</v>
+      </c>
+      <c r="E5" s="8">
+        <f>VLOOKUP(C5,$A:$G,7,0)</f>
+        <v>16</v>
+      </c>
+      <c r="F5" s="8">
+        <f>VLOOKUP(D5,$A:$G,7,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AY5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>103</v>
+      </c>
+      <c r="E6" s="8">
+        <f>VLOOKUP(C6,$A:$G,7,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F6" s="8">
+        <f>VLOOKUP(D6,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J6" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AY6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>103</v>
+      </c>
+      <c r="E7" s="8">
+        <f>VLOOKUP(C7,$A:$G,7,0)</f>
+        <v>18</v>
+      </c>
+      <c r="F7" s="8">
+        <f>VLOOKUP(D7,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AS7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AT7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AY7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>106</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>104</v>
+      </c>
+      <c r="E8" s="8">
+        <f>VLOOKUP(C8,$A:$G,7,0)</f>
+        <v>23</v>
+      </c>
+      <c r="F8" s="8">
+        <f>VLOOKUP(D8,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AY8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>107</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>105</v>
+      </c>
+      <c r="D9" s="5">
+        <v>106</v>
+      </c>
+      <c r="E9" s="8">
+        <f>VLOOKUP(C9,$A:$G,7,0)</f>
+        <v>36</v>
+      </c>
+      <c r="F9" s="8">
+        <f>VLOOKUP(D9,$A:$G,7,0)</f>
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF9" s="11" t="str">
+        <f t="shared" ref="AF9:AU16" si="5">IF(AND($H9&lt;=AF$2,AF$2&lt;=$G9),1,"")</f>
+        <v/>
+      </c>
+      <c r="AG9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AL9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AM9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AN9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AP9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT9" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AU9" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV9" s="11" t="str">
+        <f t="shared" ref="AV9:AY16" si="6">IF(AND($H9&lt;=AV$2,AV$2&lt;=$G9),1,"")</f>
+        <v/>
+      </c>
+      <c r="AW9" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX9" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY9" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>108</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>107</v>
+      </c>
+      <c r="E10" s="8">
+        <f>VLOOKUP(C10,$A:$G,7,0)</f>
+        <v>37</v>
+      </c>
+      <c r="F10" s="8">
+        <f>VLOOKUP(D10,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y10" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z10" s="11" t="str">
+        <f t="shared" ref="Z10:AO16" si="7">IF(AND($H10&lt;=Z$2,Z$2&lt;=$G10),1,"")</f>
+        <v/>
+      </c>
+      <c r="AA10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO10" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT10" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AU10" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AV10" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AW10" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AX10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>109</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <f>VLOOKUP(C11,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <f>VLOOKUP(D11,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y11" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO11" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AU11" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY11" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>110</v>
+      </c>
+      <c r="B12" s="10">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6">
+        <v>109</v>
+      </c>
+      <c r="E12" s="8">
+        <f>VLOOKUP(C12,$A:$G,7,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <f>VLOOKUP(D12,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q12" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO12" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AU12" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV12" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW12" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX12" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY12" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>111</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>109</v>
+      </c>
+      <c r="E13" s="8">
+        <f>VLOOKUP(C13,$A:$G,7,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="8">
+        <f>VLOOKUP(D13,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q13" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO13" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AU13" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY13" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>112</v>
+      </c>
+      <c r="B14" s="10">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5">
+        <v>111</v>
+      </c>
+      <c r="E14" s="8">
+        <f>VLOOKUP(C14,$A:$G,7,0)</f>
+        <v>22</v>
+      </c>
+      <c r="F14" s="8">
+        <f>VLOOKUP(D14,$A:$G,7,0)</f>
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y14" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE14" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AI14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AL14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AN14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AR14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AS14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AT14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AU14" s="11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AV14" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AW14" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AX14" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY14" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>113</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>111</v>
+      </c>
+      <c r="E15" s="8">
+        <f>VLOOKUP(C15,$A:$G,7,0)</f>
+        <v>19</v>
+      </c>
+      <c r="F15" s="8">
+        <f>VLOOKUP(D15,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y15" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO15" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AU15" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV15" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW15" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX15" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY15" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>114</v>
+      </c>
+      <c r="B16" s="10">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>113</v>
+      </c>
+      <c r="E16" s="8">
+        <f>VLOOKUP(C16,$A:$G,7,0)</f>
+        <v>26</v>
+      </c>
+      <c r="F16" s="8">
+        <f>VLOOKUP(D16,$A:$G,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y16" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI16" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AM16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AN16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AO16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AP16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AS16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AT16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AU16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AV16" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW16" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX16" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY16" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="10:51" x14ac:dyDescent="0.25">
+      <c r="J17" s="13">
+        <f>SUM(J3:J16)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" ref="K17:AW17" si="8">SUM(K3:K16)</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>104</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>106</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="O17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="R17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="Z17" s="13">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C9" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="AA17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AD17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AG17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AH17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AI17" s="13">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AL17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AM17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AO17" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AP17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AR17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AS17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AT17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AU17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AV17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AW17" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AX17" s="13">
+        <f t="shared" ref="AX17" si="9">SUM(AX3:AX16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>110</v>
-      </c>
-      <c r="B11" s="2">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>111</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>112</v>
-      </c>
-      <c r="B13" s="2">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>113</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>114</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>113</v>
+      <c r="AY17" s="13">
+        <f t="shared" ref="AY17" si="10">SUM(AY3:AY16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3:AY16">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>J3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:AY17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>J17=4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
